--- a/AAII_Financials/Yearly/BDRX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BDRX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>BDRX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -721,10 +721,10 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H8" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -806,19 +806,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F12" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G12" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="H12" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -859,14 +859,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -923,20 +923,20 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>12200</v>
       </c>
       <c r="E17" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F17" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="G17" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="H17" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -950,20 +950,20 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-11300</v>
       </c>
       <c r="E18" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F18" s="3">
-        <v>-28600</v>
+        <v>-29200</v>
       </c>
       <c r="G18" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="H18" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -990,8 +990,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>600</v>
       </c>
       <c r="E20" s="3">
         <v>1200</v>
@@ -1017,20 +1017,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-10300</v>
       </c>
       <c r="E21" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="F21" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="G21" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="H21" s="3">
-        <v>-12800</v>
+        <v>-13100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1044,8 +1044,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1072,19 +1072,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E23" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="F23" s="3">
-        <v>-29100</v>
+        <v>-29700</v>
       </c>
       <c r="G23" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="H23" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E24" s="3">
         <v>-800</v>
@@ -1108,10 +1108,10 @@
         <v>-1600</v>
       </c>
       <c r="G24" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H24" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1152,20 +1152,20 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-9700</v>
       </c>
       <c r="E26" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F26" s="3">
-        <v>-27500</v>
+        <v>-28100</v>
       </c>
       <c r="G26" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="H26" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1179,20 +1179,20 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-9700</v>
       </c>
       <c r="E27" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F27" s="3">
-        <v>-27500</v>
+        <v>-28100</v>
       </c>
       <c r="G27" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="H27" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1246,7 +1246,7 @@
         <v>-1200</v>
       </c>
       <c r="H29" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1314,8 +1314,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
         <v>-1200</v>
@@ -1341,20 +1341,20 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-9700</v>
       </c>
       <c r="E33" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F33" s="3">
-        <v>-27500</v>
+        <v>-28100</v>
       </c>
       <c r="G33" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="H33" s="3">
-        <v>-18600</v>
+        <v>-19000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1395,20 +1395,20 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-9700</v>
       </c>
       <c r="E35" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F35" s="3">
-        <v>-27500</v>
+        <v>-28100</v>
       </c>
       <c r="G35" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="H35" s="3">
-        <v>-18600</v>
+        <v>-19000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1481,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="F41" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="G41" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="H41" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1535,19 +1535,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H43" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1588,8 +1588,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
@@ -1616,19 +1616,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E46" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="F46" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="G46" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="H46" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H49" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1832,19 +1832,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E54" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="F54" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="G54" s="3">
-        <v>38300</v>
+        <v>39200</v>
       </c>
       <c r="H54" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
@@ -1911,14 +1911,14 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G59" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H59" s="3">
         <v>2300</v>
@@ -1972,10 +1972,10 @@
         <v>2300</v>
       </c>
       <c r="F60" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G60" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H60" s="3">
         <v>3100</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
@@ -2002,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G66" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="H66" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2275,20 +2275,20 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-103400</v>
       </c>
       <c r="E72" s="3">
-        <v>-91900</v>
+        <v>-93900</v>
       </c>
       <c r="F72" s="3">
-        <v>-85300</v>
+        <v>-87100</v>
       </c>
       <c r="G72" s="3">
-        <v>-58100</v>
+        <v>-59400</v>
       </c>
       <c r="H72" s="3">
-        <v>-45600</v>
+        <v>-46500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2383,20 +2383,20 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>4000</v>
       </c>
       <c r="E76" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="F76" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="G76" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="H76" s="3">
-        <v>21000</v>
+        <v>21400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2469,20 +2469,20 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-9700</v>
       </c>
       <c r="E81" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F81" s="3">
-        <v>-27500</v>
+        <v>-28100</v>
       </c>
       <c r="G81" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="H81" s="3">
-        <v>-18600</v>
+        <v>-19000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2672,19 +2672,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="E89" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F89" s="3">
-        <v>-11500</v>
+        <v>-11800</v>
       </c>
       <c r="G89" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="H89" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2796,16 +2796,16 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H94" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2941,19 +2941,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="F100" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G100" s="3">
-        <v>23200</v>
+        <v>23700</v>
       </c>
       <c r="H100" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2967,8 +2967,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="E102" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F102" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="G102" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="H102" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BDRX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BDRX_YR_FIN.xlsx
@@ -721,10 +721,10 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H8" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -806,19 +806,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F12" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G12" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="H12" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="E17" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="F17" s="3">
-        <v>29600</v>
+        <v>29000</v>
       </c>
       <c r="G17" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="H17" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -951,19 +951,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="E18" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="F18" s="3">
-        <v>-29200</v>
+        <v>-28600</v>
       </c>
       <c r="G18" s="3">
-        <v>-14300</v>
+        <v>-14000</v>
       </c>
       <c r="H18" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1018,19 +1018,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="E21" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="F21" s="3">
-        <v>-28200</v>
+        <v>-27600</v>
       </c>
       <c r="G21" s="3">
-        <v>-12100</v>
+        <v>-11800</v>
       </c>
       <c r="H21" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1072,19 +1072,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E23" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="F23" s="3">
-        <v>-29700</v>
+        <v>-29100</v>
       </c>
       <c r="G23" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="H23" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="3">
         <v>-800</v>
@@ -1108,10 +1108,10 @@
         <v>-1600</v>
       </c>
       <c r="G24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H24" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1153,19 +1153,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="E26" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F26" s="3">
-        <v>-28100</v>
+        <v>-27500</v>
       </c>
       <c r="G26" s="3">
-        <v>-11600</v>
+        <v>-11300</v>
       </c>
       <c r="H26" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1180,19 +1180,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="E27" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F27" s="3">
-        <v>-28100</v>
+        <v>-27500</v>
       </c>
       <c r="G27" s="3">
-        <v>-11600</v>
+        <v>-11300</v>
       </c>
       <c r="H27" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1246,7 +1246,7 @@
         <v>-1200</v>
       </c>
       <c r="H29" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="E33" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F33" s="3">
-        <v>-28100</v>
+        <v>-27500</v>
       </c>
       <c r="G33" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="H33" s="3">
-        <v>-19000</v>
+        <v>-18600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1396,19 +1396,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="E35" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F35" s="3">
-        <v>-28100</v>
+        <v>-27500</v>
       </c>
       <c r="G35" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="H35" s="3">
-        <v>-19000</v>
+        <v>-18600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1481,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="F41" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="G41" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H41" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1535,19 +1535,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H43" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1616,19 +1616,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E46" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="F46" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="G46" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="H46" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="H49" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1832,19 +1832,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E54" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="F54" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="G54" s="3">
-        <v>39200</v>
+        <v>38300</v>
       </c>
       <c r="H54" s="3">
-        <v>25900</v>
+        <v>25400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1918,7 +1918,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G59" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H59" s="3">
         <v>2300</v>
@@ -1972,10 +1972,10 @@
         <v>2300</v>
       </c>
       <c r="F60" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G60" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="H60" s="3">
         <v>3100</v>
@@ -2002,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
@@ -2128,19 +2128,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G66" s="3">
-        <v>14400</v>
+        <v>14100</v>
       </c>
       <c r="H66" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2276,19 +2276,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-103400</v>
+        <v>-101200</v>
       </c>
       <c r="E72" s="3">
-        <v>-93900</v>
+        <v>-91900</v>
       </c>
       <c r="F72" s="3">
-        <v>-87100</v>
+        <v>-85200</v>
       </c>
       <c r="G72" s="3">
-        <v>-59400</v>
+        <v>-58100</v>
       </c>
       <c r="H72" s="3">
-        <v>-46500</v>
+        <v>-45600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2384,19 +2384,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E76" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F76" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="G76" s="3">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="H76" s="3">
-        <v>21400</v>
+        <v>21000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2470,19 +2470,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="E81" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F81" s="3">
-        <v>-28100</v>
+        <v>-27500</v>
       </c>
       <c r="G81" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="H81" s="3">
-        <v>-19000</v>
+        <v>-18600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2672,19 +2672,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="E89" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="F89" s="3">
-        <v>-11800</v>
+        <v>-11500</v>
       </c>
       <c r="G89" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="H89" s="3">
-        <v>-17000</v>
+        <v>-16700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2796,16 +2796,16 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G94" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="H94" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2944,16 +2944,16 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="F100" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G100" s="3">
-        <v>23700</v>
+        <v>23200</v>
       </c>
       <c r="H100" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2995,19 +2995,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9200</v>
+        <v>-9000</v>
       </c>
       <c r="E102" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="G102" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="H102" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
